--- a/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F68A48A6-685A-4994-8E43-5ADA3699588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F59F24-733F-4B09-B209-3B79CA0E3370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD1B89C7-CAE4-428D-977F-AE776E76D2EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C57309E-6462-49AB-902F-ADC58D1FE3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>26,84%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>73,16%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>22,25%</t>
   </si>
   <si>
-    <t>18,73%</t>
+    <t>18,69%</t>
   </si>
   <si>
     <t>25,69%</t>
@@ -147,19 +147,19 @@
     <t>11,88%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>77,75%</t>
@@ -168,25 +168,25 @@
     <t>74,31%</t>
   </si>
   <si>
-    <t>81,27%</t>
+    <t>81,31%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,652 +195,640 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10149828-EF0B-40A1-A7DA-EE4C8C22E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6AD70B-C0AC-46BD-B845-642FAAC7C306}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2029,10 +2017,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2035,13 @@
         <v>445720</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>413</v>
@@ -2062,13 +2050,13 @@
         <v>473217</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>808</v>
@@ -2077,13 +2065,13 @@
         <v>918937</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,7 +2127,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2139,13 @@
         <v>21406</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2166,13 +2154,13 @@
         <v>20269</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2181,13 +2169,13 @@
         <v>41675</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2190,13 @@
         <v>562584</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -2217,13 +2205,13 @@
         <v>743584</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1224</v>
@@ -2232,13 +2220,13 @@
         <v>1306168</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2294,13 @@
         <v>418936</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -2321,13 +2309,13 @@
         <v>276303</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>678</v>
@@ -2336,13 +2324,13 @@
         <v>695239</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,16 +2342,16 @@
         <v>2808</v>
       </c>
       <c r="D23" s="7">
-        <v>2954830</v>
+        <v>2954829</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3046</v>
@@ -2372,13 +2360,13 @@
         <v>3244843</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5854</v>
@@ -2387,13 +2375,13 @@
         <v>6199672</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,7 +2393,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2449,7 +2437,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24A80F1-AB41-4EC7-887A-9A8FD9A7A716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06D7D03-2FE9-49D9-83BB-3AD783DB8305}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,7 +2476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2595,13 +2583,13 @@
         <v>53405</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -2610,13 +2598,13 @@
         <v>40029</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -2625,13 +2613,13 @@
         <v>93434</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2634,13 @@
         <v>324274</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -2661,13 +2649,13 @@
         <v>313239</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>334</v>
@@ -2676,13 +2664,13 @@
         <v>637513</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2738,13 @@
         <v>64919</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -2765,13 +2753,13 @@
         <v>19544</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2780,13 +2768,13 @@
         <v>84463</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2789,13 @@
         <v>363477</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -2816,13 +2804,13 @@
         <v>479033</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>706</v>
@@ -2831,13 +2819,13 @@
         <v>842510</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2893,13 @@
         <v>44401</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2920,13 +2908,13 @@
         <v>31104</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2935,13 +2923,13 @@
         <v>75505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,28 +2944,28 @@
         <v>512851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
       </c>
       <c r="I11" s="7">
-        <v>550611</v>
+        <v>550610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1309</v>
@@ -2986,13 +2974,13 @@
         <v>1063461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3007,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581715</v>
+        <v>581714</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3060,13 +3048,13 @@
         <v>96080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3075,13 +3063,13 @@
         <v>27804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -3090,13 +3078,13 @@
         <v>123884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3099,13 @@
         <v>625961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>1095</v>
@@ -3126,13 +3114,13 @@
         <v>715399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>1716</v>
@@ -3141,13 +3129,13 @@
         <v>1341360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3203,13 @@
         <v>25270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3230,13 +3218,13 @@
         <v>9771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3245,13 +3233,13 @@
         <v>35041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3254,13 @@
         <v>573106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>984</v>
@@ -3281,13 +3269,13 @@
         <v>585115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>1618</v>
@@ -3296,13 +3284,13 @@
         <v>1158221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3346,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3370,13 +3358,13 @@
         <v>18807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3385,13 +3373,13 @@
         <v>16946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -3400,13 +3388,13 @@
         <v>35753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3409,13 @@
         <v>678364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>1682</v>
@@ -3436,13 +3424,13 @@
         <v>1009062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>2683</v>
@@ -3451,13 +3439,13 @@
         <v>1687426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3513,13 @@
         <v>302882</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -3540,13 +3528,13 @@
         <v>145198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>355</v>
@@ -3555,13 +3543,13 @@
         <v>448080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3564,13 @@
         <v>3078032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>5192</v>
@@ -3591,28 +3579,28 @@
         <v>3652459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>8366</v>
       </c>
       <c r="N23" s="7">
-        <v>6730492</v>
+        <v>6730491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,7 +3642,7 @@
         <v>8721</v>
       </c>
       <c r="N24" s="7">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3668,7 +3656,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F59F24-733F-4B09-B209-3B79CA0E3370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90135575-32A8-4306-AAC6-B8C4ECB2FC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C57309E-6462-49AB-902F-ADC58D1FE3A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08CB1127-8263-42EB-981C-6C8BDA387251}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="260">
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,19 +75,19 @@
     <t>26,84%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>23,73%</t>
@@ -96,7 +96,7 @@
     <t>20,97%</t>
   </si>
   <si>
-    <t>26,99%</t>
+    <t>27,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,25 +105,25 @@
     <t>73,16%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>73,01%</t>
+    <t>72,83%</t>
   </si>
   <si>
     <t>79,03%</t>
@@ -138,55 +138,55 @@
     <t>22,25%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,49 +309,55 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>6,65%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,35%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -360,10 +366,10 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>2,65%</t>
@@ -372,31 +378,31 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>98,35%</t>
@@ -405,64 +411,64 @@
     <t>96,91%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -585,18 +591,12 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
     <t>5,35%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
     <t>6,63%</t>
   </si>
   <si>
@@ -606,18 +606,12 @@
     <t>92,03%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
     <t>94,32%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
     <t>96,13%</t>
   </si>
   <si>
@@ -699,9 +693,6 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
     <t>95,78%</t>
   </si>
   <si>
@@ -721,9 +712,6 @@
   </si>
   <si>
     <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
   </si>
   <si>
     <t>97,92%</t>
@@ -1240,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6AD70B-C0AC-46BD-B845-642FAAC7C306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FF1969-1A07-4B0D-872E-081E870F81B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2017,10 +2005,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2023,13 @@
         <v>445720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>413</v>
@@ -2050,13 +2038,13 @@
         <v>473217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>808</v>
@@ -2065,13 +2053,13 @@
         <v>918937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,7 +2115,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2139,13 +2127,13 @@
         <v>21406</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2154,13 +2142,13 @@
         <v>20269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2169,13 +2157,13 @@
         <v>41675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2178,13 @@
         <v>562584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -2205,13 +2193,13 @@
         <v>743584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1224</v>
@@ -2220,13 +2208,13 @@
         <v>1306168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2282,13 @@
         <v>418936</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -2309,13 +2297,13 @@
         <v>276303</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>678</v>
@@ -2324,13 +2312,13 @@
         <v>695239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,16 +2330,16 @@
         <v>2808</v>
       </c>
       <c r="D23" s="7">
-        <v>2954829</v>
+        <v>2954830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3046</v>
@@ -2360,13 +2348,13 @@
         <v>3244843</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5854</v>
@@ -2375,13 +2363,13 @@
         <v>6199672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,7 +2381,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3373765</v>
+        <v>3373766</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2437,7 +2425,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06D7D03-2FE9-49D9-83BB-3AD783DB8305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B1B8C8-EA85-4867-81A0-C10C6F2DB710}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,7 +2464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2583,13 +2571,13 @@
         <v>53405</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -2598,13 +2586,13 @@
         <v>40029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -2613,13 +2601,13 @@
         <v>93434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2622,13 @@
         <v>324274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -2649,13 +2637,13 @@
         <v>313239</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>334</v>
@@ -2664,13 +2652,13 @@
         <v>637513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2726,13 @@
         <v>64919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -2753,13 +2741,13 @@
         <v>19544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2768,13 +2756,13 @@
         <v>84463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2777,13 @@
         <v>363477</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -2804,13 +2792,13 @@
         <v>479033</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>706</v>
@@ -2819,13 +2807,13 @@
         <v>842510</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2881,13 @@
         <v>44401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2908,13 +2896,13 @@
         <v>31104</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2926,7 +2914,7 @@
         <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>187</v>
@@ -2947,10 +2935,10 @@
         <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
@@ -2959,13 +2947,13 @@
         <v>550610</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1309</v>
@@ -2974,13 +2962,13 @@
         <v>1063461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3036,13 @@
         <v>96080</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3063,13 +3051,13 @@
         <v>27804</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -3078,13 +3066,13 @@
         <v>123884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3087,13 @@
         <v>625961</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>1095</v>
@@ -3114,13 +3102,13 @@
         <v>715399</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>1716</v>
@@ -3129,13 +3117,13 @@
         <v>1341360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3191,13 @@
         <v>25270</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3218,13 +3206,13 @@
         <v>9771</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3233,13 +3221,13 @@
         <v>35041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3242,13 @@
         <v>573106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H17" s="7">
         <v>984</v>
@@ -3269,13 +3257,13 @@
         <v>585115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>1618</v>
@@ -3284,13 +3272,13 @@
         <v>1158221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,7 +3334,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3358,13 +3346,13 @@
         <v>18807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3373,13 +3361,13 @@
         <v>16946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -3388,13 +3376,13 @@
         <v>35753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3397,13 @@
         <v>678364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>1682</v>
@@ -3424,13 +3412,13 @@
         <v>1009062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>2683</v>
@@ -3439,13 +3427,13 @@
         <v>1687426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3501,13 @@
         <v>302882</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -3528,13 +3516,13 @@
         <v>145198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>355</v>
@@ -3543,13 +3531,13 @@
         <v>448080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3552,13 @@
         <v>3078032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>5192</v>
@@ -3579,13 +3567,13 @@
         <v>3652459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>8366</v>
@@ -3594,13 +3582,13 @@
         <v>6730491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3644,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90135575-32A8-4306-AAC6-B8C4ECB2FC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA8FD87-ACF5-470C-9D29-824C5C6A53AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08CB1127-8263-42EB-981C-6C8BDA387251}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96A471A7-0782-4FAF-B5B7-93687E9DFA7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>26,84%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>73,16%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>22,25%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,55 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,400 +366,436 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,16%</t>
   </si>
   <si>
     <t>98,5%</t>
@@ -768,55 +804,43 @@
     <t>8,96%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FF1969-1A07-4B0D-872E-081E870F81B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EADD00F-82DE-42D0-88CF-1C79C43FDCC4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2447,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B1B8C8-EA85-4867-81A0-C10C6F2DB710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C447E45-ED2C-474C-B4AB-8126BA23CB58}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2887,7 +2911,7 @@
         <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2896,13 +2920,13 @@
         <v>31104</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2911,13 +2935,13 @@
         <v>75505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,28 +2956,28 @@
         <v>512851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
       </c>
       <c r="I11" s="7">
-        <v>550610</v>
+        <v>550611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1309</v>
@@ -2962,13 +2986,13 @@
         <v>1063461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,7 +3019,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581714</v>
+        <v>581715</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3036,13 +3060,13 @@
         <v>96080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3051,13 +3075,13 @@
         <v>27804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -3066,13 +3090,13 @@
         <v>123884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3111,13 @@
         <v>625961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>1095</v>
@@ -3102,13 +3126,13 @@
         <v>715399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1716</v>
@@ -3117,13 +3141,13 @@
         <v>1341360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3215,13 @@
         <v>25270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3206,13 +3230,13 @@
         <v>9771</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3221,13 +3245,13 @@
         <v>35041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3266,13 @@
         <v>573106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>984</v>
@@ -3257,13 +3281,13 @@
         <v>585115</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>1618</v>
@@ -3272,13 +3296,13 @@
         <v>1158221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3370,13 @@
         <v>18807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3361,13 +3385,13 @@
         <v>16946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -3376,13 +3400,13 @@
         <v>35753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3421,13 @@
         <v>678364</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>1682</v>
@@ -3412,13 +3436,13 @@
         <v>1009062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>2683</v>
@@ -3427,13 +3451,13 @@
         <v>1687426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3525,13 @@
         <v>302882</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -3516,13 +3540,13 @@
         <v>145198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>355</v>
@@ -3531,13 +3555,13 @@
         <v>448080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3576,13 @@
         <v>3078032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>5192</v>
@@ -3567,28 +3591,28 @@
         <v>3652459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>8366</v>
       </c>
       <c r="N23" s="7">
-        <v>6730491</v>
+        <v>6730492</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3654,7 @@
         <v>8721</v>
       </c>
       <c r="N24" s="7">
-        <v>7178571</v>
+        <v>7178572</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA8FD87-ACF5-470C-9D29-824C5C6A53AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95988AA9-452B-4C6F-B046-ACD05B797DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96A471A7-0782-4FAF-B5B7-93687E9DFA7C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BCB39041-6011-44C0-920E-0244EECA7BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="297">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +132,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>22,25%</t>
@@ -189,7 +189,7 @@
     <t>85,06%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>11,82%</t>
@@ -246,7 +246,7 @@
     <t>91,73%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>7,82%</t>
@@ -303,7 +303,7 @@
     <t>94,79%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,24%</t>
@@ -360,61 +360,118 @@
     <t>96,44%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>12,42%</t>
@@ -477,370 +534,400 @@
     <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1339,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EADD00F-82DE-42D0-88CF-1C79C43FDCC4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A643023-56A6-4B9D-89A8-9A81C32DCA7C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2145,10 +2232,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>21406</v>
+        <v>12428</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2160,10 +2247,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>20269</v>
+        <v>11435</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2175,10 +2262,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>41675</v>
+        <v>23863</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2196,10 +2283,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>597</v>
+        <v>310</v>
       </c>
       <c r="D20" s="7">
-        <v>562584</v>
+        <v>319905</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2211,10 +2298,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>627</v>
+        <v>341</v>
       </c>
       <c r="I20" s="7">
-        <v>743584</v>
+        <v>364312</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2226,10 +2313,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1224</v>
+        <v>651</v>
       </c>
       <c r="N20" s="7">
-        <v>1306168</v>
+        <v>684217</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2247,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>620</v>
+        <v>323</v>
       </c>
       <c r="D21" s="7">
-        <v>583990</v>
+        <v>332333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2262,10 +2349,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>645</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>763853</v>
+        <v>375747</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2277,10 +2364,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1265</v>
+        <v>675</v>
       </c>
       <c r="N21" s="7">
-        <v>1347843</v>
+        <v>708080</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2294,55 +2381,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>418936</v>
+        <v>8978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>276303</v>
+        <v>8834</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>678</v>
+        <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>695239</v>
+        <v>17812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2438,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2808</v>
+        <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>2954830</v>
+        <v>242679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3046</v>
+        <v>286</v>
       </c>
       <c r="I23" s="7">
-        <v>3244843</v>
+        <v>379272</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5854</v>
+        <v>573</v>
       </c>
       <c r="N23" s="7">
-        <v>6199672</v>
+        <v>621951</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,63 +2489,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>297</v>
+      </c>
+      <c r="D24" s="7">
+        <v>251657</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>293</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388106</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>590</v>
+      </c>
+      <c r="N24" s="7">
+        <v>639763</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>405</v>
+      </c>
+      <c r="D25" s="7">
+        <v>418936</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>273</v>
+      </c>
+      <c r="I25" s="7">
+        <v>276303</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>678</v>
+      </c>
+      <c r="N25" s="7">
+        <v>695239</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2808</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2954829</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3046</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3244843</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5854</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6199672</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
-        <v>3373766</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3373765</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3319</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3521146</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6532</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6894911</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2471,8 +2714,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C447E45-ED2C-474C-B4AB-8126BA23CB58}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C28671-3EC9-41AB-897D-0CA9275D0165}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2488,7 +2731,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2592,46 +2835,46 @@
         <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>53405</v>
+        <v>51100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>40029</v>
+        <v>33629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>93434</v>
+        <v>84729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,46 +2886,46 @@
         <v>151</v>
       </c>
       <c r="D5" s="7">
-        <v>324274</v>
+        <v>348887</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>313239</v>
+        <v>277988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>334</v>
       </c>
       <c r="N5" s="7">
-        <v>637513</v>
+        <v>626875</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2937,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2709,7 +2952,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353268</v>
+        <v>311617</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2724,7 +2967,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>730947</v>
+        <v>711604</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2747,46 +2990,46 @@
         <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>64919</v>
+        <v>60017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>19544</v>
+        <v>17131</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>84463</v>
+        <v>77148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,46 +3041,46 @@
         <v>261</v>
       </c>
       <c r="D8" s="7">
-        <v>363477</v>
+        <v>363530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
       </c>
       <c r="I8" s="7">
-        <v>479033</v>
+        <v>494373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>706</v>
       </c>
       <c r="N8" s="7">
-        <v>842510</v>
+        <v>857903</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +3092,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2864,7 +3107,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2879,7 +3122,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2902,46 +3145,46 @@
         <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>44401</v>
+        <v>41336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>31104</v>
+        <v>28167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>75505</v>
+        <v>69503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,46 +3196,46 @@
         <v>506</v>
       </c>
       <c r="D11" s="7">
-        <v>512851</v>
+        <v>495002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>803</v>
       </c>
       <c r="I11" s="7">
-        <v>550611</v>
+        <v>512647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>1309</v>
       </c>
       <c r="N11" s="7">
-        <v>1063461</v>
+        <v>1007650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3247,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3019,7 +3262,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581715</v>
+        <v>540814</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3034,7 +3277,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138966</v>
+        <v>1077153</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3057,46 +3300,46 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>96080</v>
+        <v>284819</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>27804</v>
+        <v>24909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>123884</v>
+        <v>309728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,46 +3351,46 @@
         <v>621</v>
       </c>
       <c r="D14" s="7">
-        <v>625961</v>
+        <v>601090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>1095</v>
       </c>
       <c r="I14" s="7">
-        <v>715399</v>
+        <v>684195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1716</v>
       </c>
       <c r="N14" s="7">
-        <v>1341360</v>
+        <v>1285285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3402,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>722041</v>
+        <v>885909</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3174,7 +3417,7 @@
         <v>1134</v>
       </c>
       <c r="I15" s="7">
-        <v>743203</v>
+        <v>709104</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3189,7 +3432,7 @@
         <v>1797</v>
       </c>
       <c r="N15" s="7">
-        <v>1465244</v>
+        <v>1595013</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3212,46 +3455,46 @@
         <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>25270</v>
+        <v>23022</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>9771</v>
+        <v>8809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>35041</v>
+        <v>31832</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,46 +3506,46 @@
         <v>634</v>
       </c>
       <c r="D17" s="7">
-        <v>573106</v>
+        <v>536491</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>984</v>
       </c>
       <c r="I17" s="7">
-        <v>585115</v>
+        <v>537076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>1618</v>
       </c>
       <c r="N17" s="7">
-        <v>1158221</v>
+        <v>1073566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3557,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598376</v>
+        <v>559513</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3329,7 +3572,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>594886</v>
+        <v>545885</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3344,7 +3587,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1193262</v>
+        <v>1105398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3364,49 +3607,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>18807</v>
+        <v>12409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>16946</v>
+        <v>5536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>35753</v>
+        <v>17944</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,49 +3658,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1001</v>
+        <v>551</v>
       </c>
       <c r="D20" s="7">
-        <v>678364</v>
+        <v>355756</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
-        <v>1682</v>
+        <v>816</v>
       </c>
       <c r="I20" s="7">
-        <v>1009062</v>
+        <v>602832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>2683</v>
+        <v>1367</v>
       </c>
       <c r="N20" s="7">
-        <v>1687426</v>
+        <v>958589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3709,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697171</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3481,10 +3724,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026008</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3496,10 +3739,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723179</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3513,55 +3756,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>302882</v>
+        <v>4557</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>145198</v>
+        <v>8137</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
-        <v>355</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>448080</v>
+        <v>12695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,49 +3813,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3174</v>
+        <v>450</v>
       </c>
       <c r="D23" s="7">
-        <v>3078032</v>
+        <v>277654</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>5192</v>
+        <v>866</v>
       </c>
       <c r="I23" s="7">
-        <v>3652459</v>
+        <v>417104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>8366</v>
+        <v>1316</v>
       </c>
       <c r="N23" s="7">
-        <v>6730492</v>
+        <v>694757</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,63 +3864,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282211</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425241</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707452</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>197</v>
+      </c>
+      <c r="D25" s="7">
+        <v>477261</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>158</v>
+      </c>
+      <c r="I25" s="7">
+        <v>126318</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>355</v>
+      </c>
+      <c r="N25" s="7">
+        <v>603580</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3174</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2978410</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5192</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3526216</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8366</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6504624</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3380914</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3455671</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5350</v>
       </c>
-      <c r="I24" s="7">
-        <v>3797657</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3652534</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8721</v>
       </c>
-      <c r="N24" s="7">
-        <v>7178572</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7108204</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
